--- a/server/assets/副本INTO工作室申请统计表(审核12月31日)发给技术_copy.xlsx
+++ b/server/assets/副本INTO工作室申请统计表(审核12月31日)发给技术_copy.xlsx
@@ -917,7 +917,7 @@
     <t>Amy</t>
   </si>
   <si>
-    <t>0x5b1003eA0f799BD05b6E9750d0E79c570Ab52463</t>
+    <t>0xb4602Eda36C3f35BFFB5A21d4b82806e79E50ee1</t>
   </si>
   <si>
     <t>Mr.MM</t>
@@ -2327,8 +2327,8 @@
   <sheetPr/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
